--- a/data-raw/US/Basic_Select-Ultimate/USA_1975-80_Basic_Select_Ultimate.xlsx
+++ b/data-raw/US/Basic_Select-Ultimate/USA_1975-80_Basic_Select_Ultimate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1975-80 Basic male ANB" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,26 +28,8 @@
     <t xml:space="preserve">USA 1975-80 Basic Select-Ultimate Tables</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Male Age nearest Birthday, per 1000, i.e. 1000 q_x
-Source: Transactions SoA 1986 Reports, pp.205--227, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
-    </r>
+    <t xml:space="preserve">Male Age nearest Birthday, per 1000, i.e. 1000 q_x
+Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Initial Age</t>
@@ -59,91 +41,16 @@
     <t xml:space="preserve">Attained Age</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Female Age nearest Birthday, per 1000, i.e. 1000 q_x
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Source: Transactions SoA 1986 Reports, pp.205--227, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
-    </r>
+    <t xml:space="preserve">Female Age nearest Birthday, per 1000, i.e. 1000 q_x
+Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Male Age last Birthday, per 1000, i.e. 1000 q_x
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Source: Transactions SoA 1986 Reports, pp.205--227, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
-    </r>
+    <t xml:space="preserve">Male Age last Birthday, per 1000, i.e. 1000 q_x
+Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Female Age last Birthday, per 1000, i.e. 1000 q_x
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Source: Transactions SoA 1986 Reports, pp.205--227, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
-    </r>
+    <t xml:space="preserve">Female Age last Birthday, per 1000, i.e. 1000 q_x
+Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf</t>
   </si>
 </sst>
 </file>
@@ -156,7 +63,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -204,17 +111,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -332,7 +228,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,11 +355,11 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.47"/>
@@ -4545,9 +4441,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="n">
-        <v>86</v>
-      </c>
+      <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -4571,9 +4465,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="n">
-        <v>87</v>
-      </c>
+      <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -4597,9 +4489,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="n">
-        <v>88</v>
-      </c>
+      <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -4623,9 +4513,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="n">
-        <v>89</v>
-      </c>
+      <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -4649,9 +4537,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="n">
-        <v>90</v>
-      </c>
+      <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -4675,9 +4561,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="n">
-        <v>91</v>
-      </c>
+      <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -4701,9 +4585,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="n">
-        <v>92</v>
-      </c>
+      <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -4727,9 +4609,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="n">
-        <v>93</v>
-      </c>
+      <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -4753,9 +4633,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="n">
-        <v>94</v>
-      </c>
+      <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4779,9 +4657,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
-        <v>95</v>
-      </c>
+      <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -4805,9 +4681,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="n">
-        <v>96</v>
-      </c>
+      <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -4831,9 +4705,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
-        <v>97</v>
-      </c>
+      <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4857,9 +4729,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="n">
-        <v>98</v>
-      </c>
+      <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4883,9 +4753,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="n">
-        <v>99</v>
-      </c>
+      <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4909,9 +4777,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="n">
-        <v>100</v>
-      </c>
+      <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -4940,7 +4806,7 @@
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
+    <hyperlink ref="A2" r:id="rId1" display="Male Age nearest Birthday, per 1000, i.e. 1000 q_x&#10;Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4960,10 +4826,10 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.47"/>
@@ -9045,9 +8911,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="n">
-        <v>86</v>
-      </c>
+      <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -9071,9 +8935,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="n">
-        <v>87</v>
-      </c>
+      <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -9097,9 +8959,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="n">
-        <v>88</v>
-      </c>
+      <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -9123,9 +8983,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="n">
-        <v>89</v>
-      </c>
+      <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -9149,9 +9007,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="n">
-        <v>90</v>
-      </c>
+      <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -9175,9 +9031,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="n">
-        <v>91</v>
-      </c>
+      <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -9201,9 +9055,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="n">
-        <v>92</v>
-      </c>
+      <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -9227,9 +9079,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="n">
-        <v>93</v>
-      </c>
+      <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -9253,9 +9103,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="n">
-        <v>94</v>
-      </c>
+      <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -9279,9 +9127,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
-        <v>95</v>
-      </c>
+      <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -9305,9 +9151,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="n">
-        <v>96</v>
-      </c>
+      <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -9331,9 +9175,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
-        <v>97</v>
-      </c>
+      <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -9357,9 +9199,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="n">
-        <v>98</v>
-      </c>
+      <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -9383,9 +9223,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="n">
-        <v>99</v>
-      </c>
+      <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -9409,9 +9247,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="n">
-        <v>100</v>
-      </c>
+      <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -9440,7 +9276,7 @@
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
+    <hyperlink ref="A2" r:id="rId1" display="Female Age nearest Birthday, per 1000, i.e. 1000 q_x&#10;Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -9460,10 +9296,10 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.47"/>
@@ -13545,9 +13381,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="n">
-        <v>86</v>
-      </c>
+      <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -13571,9 +13405,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="n">
-        <v>87</v>
-      </c>
+      <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -13597,9 +13429,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="n">
-        <v>88</v>
-      </c>
+      <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -13623,9 +13453,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="n">
-        <v>89</v>
-      </c>
+      <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -13649,9 +13477,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="n">
-        <v>90</v>
-      </c>
+      <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -13675,9 +13501,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="n">
-        <v>91</v>
-      </c>
+      <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -13701,9 +13525,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="n">
-        <v>92</v>
-      </c>
+      <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -13727,9 +13549,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="n">
-        <v>93</v>
-      </c>
+      <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -13753,9 +13573,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="n">
-        <v>94</v>
-      </c>
+      <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -13779,9 +13597,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
-        <v>95</v>
-      </c>
+      <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -13805,9 +13621,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="n">
-        <v>96</v>
-      </c>
+      <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -13831,9 +13645,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
-        <v>97</v>
-      </c>
+      <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -13857,9 +13669,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="n">
-        <v>98</v>
-      </c>
+      <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -13883,9 +13693,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="n">
-        <v>99</v>
-      </c>
+      <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -13909,9 +13717,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="n">
-        <v>100</v>
-      </c>
+      <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -13940,7 +13746,7 @@
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
+    <hyperlink ref="A2" r:id="rId1" display="Male Age last Birthday, per 1000, i.e. 1000 q_x&#10;Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -13959,11 +13765,11 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.47"/>
@@ -18410,7 +18216,7 @@
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
+    <hyperlink ref="A2" r:id="rId1" display="Female Age last Birthday, per 1000, i.e. 1000 q_x&#10;Source: Transactions SoA 1986 Reports, pp.205--227, https://www.soa.org/globalassets/assets/library/research/transactions-of-society-of-actuaries/1986/january/tsa86v3810.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
